--- a/init-data/hzero-message/hzero_platform/hzero-platform-permission-range.xlsx
+++ b/init-data/hzero-message/hzero_platform/hzero-platform-permission-range.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2016,7 +2016,10 @@
     <t>rule_type_code</t>
   </si>
   <si>
-    <t>rule_name</t>
+    <t>rule_name:zh_CN</t>
+  </si>
+  <si>
+    <t>rule_name:en_US</t>
   </si>
   <si>
     <t>description</t>
@@ -2025,51 +2028,57 @@
     <t>sql_value</t>
   </si>
   <si>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>enabled_flag</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-8</t>
+  </si>
+  <si>
+    <t>PREFIX.HZERO_PLATFORM</t>
+  </si>
+  <si>
+    <t>PREFIX</t>
+  </si>
+  <si>
+    <t>平台数据库前缀</t>
+  </si>
+  <si>
+    <t>hzero_platform</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>屏蔽范围</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range</t>
+  </si>
+  <si>
+    <t>*range_id</t>
+  </si>
+  <si>
+    <t>custom_rule_flag</t>
+  </si>
+  <si>
+    <t>#table_name</t>
+  </si>
+  <si>
+    <t>#sql_id</t>
+  </si>
+  <si>
     <t>#tenant_id</t>
   </si>
   <si>
-    <t>enabled_flag</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-8</t>
-  </si>
-  <si>
-    <t>PREFIX.HZERO_PLATFORM</t>
-  </si>
-  <si>
-    <t>PREFIX</t>
-  </si>
-  <si>
-    <t>平台数据库前缀</t>
-  </si>
-  <si>
-    <t>hzero_platform</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>屏蔽范围</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range</t>
-  </si>
-  <si>
-    <t>*range_id</t>
-  </si>
-  <si>
-    <t>custom_rule_flag</t>
-  </si>
-  <si>
-    <t>#table_name</t>
-  </si>
-  <si>
-    <t>#sql_id</t>
-  </si>
-  <si>
     <t>#service_name</t>
   </si>
   <si>
@@ -2098,6 +2107,9 @@
   </si>
   <si>
     <t>editable_flag</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
   </si>
   <si>
     <t>hpfm_permission_rel-14</t>
@@ -2108,7 +2120,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2270,6 +2282,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2470,7 +2487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2558,6 +2575,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3143,7 +3161,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3205,34 +3223,46 @@
       <c r="J7" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="42">
+      <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="42">
         <v>61</v>
+      </c>
+      <c r="M7" t="s" s="43">
+        <v>62</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -3243,54 +3273,54 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s" s="43">
-        <v>70</v>
-      </c>
-      <c r="E10" t="s" s="44">
         <v>71</v>
       </c>
+      <c r="D10" t="s" s="44">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s" s="45">
+        <v>73</v>
+      </c>
       <c r="F10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" t="s" s="45">
-        <v>73</v>
-      </c>
-      <c r="H10" t="s" s="46">
         <v>74</v>
       </c>
+      <c r="G10" t="s" s="46">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s" s="47">
+        <v>76</v>
+      </c>
       <c r="I10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" t="s" s="47">
-        <v>60</v>
-      </c>
-      <c r="K10" t="s" s="48">
-        <v>75</v>
+        <v>59</v>
+      </c>
+      <c r="J10" t="s" s="48">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s" s="49">
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -3301,27 +3331,30 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" t="s" s="49">
-        <v>80</v>
-      </c>
-      <c r="E13" t="s" s="50">
-        <v>81</v>
-      </c>
-      <c r="F13" t="s" s="51">
         <v>82</v>
       </c>
-      <c r="G13" t="s" s="52">
+      <c r="D13" t="s" s="50">
         <v>83</v>
       </c>
+      <c r="E13" t="s" s="51">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s" s="52">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s" s="53">
+        <v>86</v>
+      </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="I13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F14">
         <f>屏蔽规则!$E$11</f>
@@ -3330,7 +3363,10 @@
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
